--- a/2015-16-ugrad-students/UGRAD stats.xlsx
+++ b/2015-16-ugrad-students/UGRAD stats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>all</t>
   </si>
@@ -577,6 +577,279 @@
   </si>
   <si>
     <t>Natural Resources Management</t>
+  </si>
+  <si>
+    <t>University of Southern Indiana</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>North Dakota State University</t>
+  </si>
+  <si>
+    <t>University of Arkansas</t>
+  </si>
+  <si>
+    <t>University of Wyoming</t>
+  </si>
+  <si>
+    <t>Wright State University</t>
+  </si>
+  <si>
+    <t>Saginaw Valley State University</t>
+  </si>
+  <si>
+    <t>West Virginia University</t>
+  </si>
+  <si>
+    <t>Tennessee Tech University</t>
+  </si>
+  <si>
+    <t>University of Missouri - Columbia</t>
+  </si>
+  <si>
+    <t>Florida Gulf Coast University</t>
+  </si>
+  <si>
+    <t>Utica College</t>
+  </si>
+  <si>
+    <t>West Liberty University</t>
+  </si>
+  <si>
+    <t>Humboldt State University</t>
+  </si>
+  <si>
+    <t>Augustana University</t>
+  </si>
+  <si>
+    <t>Lewis-Clark State College</t>
+  </si>
+  <si>
+    <t>University of Evansville</t>
+  </si>
+  <si>
+    <t>St. Cloud State University</t>
+  </si>
+  <si>
+    <t>Emporia State University</t>
+  </si>
+  <si>
+    <t>University of Tennessee, Knoxville</t>
+  </si>
+  <si>
+    <t>Cal State Bakersfield</t>
+  </si>
+  <si>
+    <t>Minnesota State Mankato</t>
+  </si>
+  <si>
+    <t>Kent State University</t>
+  </si>
+  <si>
+    <t>Maryville College</t>
+  </si>
+  <si>
+    <t>Millikin University</t>
+  </si>
+  <si>
+    <t>U. Wisconsin - Eau Claire</t>
+  </si>
+  <si>
+    <t>Fairleigh Dickinson University</t>
+  </si>
+  <si>
+    <t>Pittsburg State University</t>
+  </si>
+  <si>
+    <t>Carroll College</t>
+  </si>
+  <si>
+    <t>Illinois State University</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>American University</t>
+  </si>
+  <si>
+    <t>Presbyterian College</t>
+  </si>
+  <si>
+    <t>University of Mississippi</t>
+  </si>
+  <si>
+    <t>Western Washington University</t>
+  </si>
+  <si>
+    <t>CSU, San Marcos</t>
+  </si>
+  <si>
+    <t>Missouri State University</t>
+  </si>
+  <si>
+    <t>Endicott College</t>
+  </si>
+  <si>
+    <t>University of Memphis</t>
+  </si>
+  <si>
+    <t>Montclair State University</t>
+  </si>
+  <si>
+    <t>Murray State University</t>
+  </si>
+  <si>
+    <t>Wayne State University</t>
+  </si>
+  <si>
+    <t>Chatham University</t>
+  </si>
+  <si>
+    <t>Old Dominion University</t>
+  </si>
+  <si>
+    <t>Wilson College</t>
+  </si>
+  <si>
+    <t>University of Montana</t>
+  </si>
+  <si>
+    <t>North Central College</t>
+  </si>
+  <si>
+    <t>University of Central Missouri</t>
+  </si>
+  <si>
+    <t>Northern Michigan University</t>
+  </si>
+  <si>
+    <t>Barnard College</t>
+  </si>
+  <si>
+    <t>Grand Valley State</t>
+  </si>
+  <si>
+    <t>CSU, Monterey Bay</t>
+  </si>
+  <si>
+    <t>East Tennessee State University</t>
+  </si>
+  <si>
+    <t>Marymount University</t>
+  </si>
+  <si>
+    <t>Nazareth College</t>
+  </si>
+  <si>
+    <t>University of Maine</t>
+  </si>
+  <si>
+    <t>University of Kansas</t>
+  </si>
+  <si>
+    <t>U. Wisconsin - Superior</t>
+  </si>
+  <si>
+    <t>University of New Hampshire</t>
+  </si>
+  <si>
+    <t>University of Minnesota, TC</t>
+  </si>
+  <si>
+    <t>SUNY-Plattsburgh</t>
+  </si>
+  <si>
+    <t>East Tennessee State U.</t>
+  </si>
+  <si>
+    <t>Mercyhurst University</t>
+  </si>
+  <si>
+    <t>Gadsden State</t>
+  </si>
+  <si>
+    <t>The University of Texas at Austin</t>
+  </si>
+  <si>
+    <t>Xavier University of Louisiana</t>
+  </si>
+  <si>
+    <t>Boston Met College</t>
+  </si>
+  <si>
+    <t>Mount Mercy University</t>
+  </si>
+  <si>
+    <t>St. Catherine University</t>
+  </si>
+  <si>
+    <t>Indiana U. of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Oklahoma State Institute of Tech</t>
+  </si>
+  <si>
+    <t>University of Delaware</t>
+  </si>
+  <si>
+    <t>University of the Incarnate Word</t>
+  </si>
+  <si>
+    <t>SUNY - Cobleskill</t>
+  </si>
+  <si>
+    <t>Depauw University</t>
+  </si>
+  <si>
+    <t>Univeristy of Wisconsin, Eau Claire</t>
+  </si>
+  <si>
+    <t>Indiana Univeristy of Pennsylvania</t>
+  </si>
+  <si>
+    <t>University of Minnesota, Twin - Cities</t>
+  </si>
+  <si>
+    <t>University Of Minnesota - Twin Cities</t>
+  </si>
+  <si>
+    <t>Oklahoma State University of Technology</t>
+  </si>
+  <si>
+    <t>U. Wisconsin - Stout</t>
+  </si>
+  <si>
+    <t>California State Univeristy, San Marcos</t>
+  </si>
+  <si>
+    <t>Lincoln University of PA</t>
+  </si>
+  <si>
+    <t>Snow College</t>
+  </si>
+  <si>
+    <t>Missourri State University</t>
+  </si>
+  <si>
+    <t>University of Wisconsin - Eau Claire</t>
+  </si>
+  <si>
+    <t>Lincoln University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>California State Univeristy, Monterey Bay</t>
+  </si>
+  <si>
+    <t>SUNY - Plattsburgh</t>
+  </si>
+  <si>
+    <t>University of Wisconsin - Stout</t>
+  </si>
+  <si>
+    <t>host</t>
   </si>
 </sst>
 </file>
@@ -631,8 +904,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -666,7 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -681,6 +958,8 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -695,6 +974,8 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1024,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61:E183"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1035,7 +1316,7 @@
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1051,13 +1332,16 @@
       <c r="E1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -1065,7 +1349,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -1073,7 +1357,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -1081,7 +1365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -1089,7 +1373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1097,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1105,7 +1389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -1113,7 +1397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -1121,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1129,7 +1413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1137,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1145,7 +1429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1153,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1161,7 +1445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2449,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="16">
+    <row r="177" spans="1:6" ht="16">
       <c r="A177" s="1" t="s">
         <v>10</v>
       </c>
@@ -2457,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="16">
+    <row r="178" spans="1:6" ht="16">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -2465,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="16">
+    <row r="179" spans="1:6" ht="16">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -2473,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16">
+    <row r="180" spans="1:6" ht="16">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -2481,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16">
+    <row r="181" spans="1:6" ht="16">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -2489,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16">
+    <row r="182" spans="1:6" ht="16">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -2497,11 +2781,731 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16">
+    <row r="183" spans="1:6" ht="16">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="16">
+      <c r="A184" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F184" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="16">
+      <c r="A185" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F185" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="16">
+      <c r="A186" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F186" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="16">
+      <c r="A187" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F187" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="16">
+      <c r="A188" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F188" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="16">
+      <c r="A189" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F189" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="16">
+      <c r="A190" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F190" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="16">
+      <c r="A191" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F191" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="16">
+      <c r="A192" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F192" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="16">
+      <c r="A193" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F193" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="16">
+      <c r="A194" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F194" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="16">
+      <c r="A195" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F195" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="16">
+      <c r="A196" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="16">
+      <c r="A197" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="16">
+      <c r="A198" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F198" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="16">
+      <c r="A199" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="16">
+      <c r="A200" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F200" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="16">
+      <c r="A201" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F201" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="16">
+      <c r="A202" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F202" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="16">
+      <c r="A203" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F203" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="16">
+      <c r="A204" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F204" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="16">
+      <c r="A205" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F205" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="16">
+      <c r="A206" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F206" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="16">
+      <c r="A207" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F207" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="16">
+      <c r="A208" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F208" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="16">
+      <c r="A209" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F209" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="16">
+      <c r="A210" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F210" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="16">
+      <c r="A211" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F211" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="16">
+      <c r="A212" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F212" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="16">
+      <c r="A213" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F213" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="16">
+      <c r="A214" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F214" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="16">
+      <c r="A215" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F215" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="16">
+      <c r="A216" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F216" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="16">
+      <c r="A217" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F217" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="16">
+      <c r="A218" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F218" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="16">
+      <c r="A219" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F219" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="16">
+      <c r="A220" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F220" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="16">
+      <c r="A221" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F221" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="16">
+      <c r="A222" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F222" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="16">
+      <c r="A223" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F223" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="16">
+      <c r="A224" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F224" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="16">
+      <c r="A225" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F225" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="16">
+      <c r="A226" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F226" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="16">
+      <c r="A227" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F227" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="16">
+      <c r="A228" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F228" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="16">
+      <c r="A229" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F229" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="16">
+      <c r="A230" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F230" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="16">
+      <c r="A231" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F231" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="16">
+      <c r="A232" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F232" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="16">
+      <c r="A233" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F233" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="16">
+      <c r="A234" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F234" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="16">
+      <c r="A235" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F235" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="16">
+      <c r="A236" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F236" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="16">
+      <c r="A237" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F237" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="16">
+      <c r="A238" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F238" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="16">
+      <c r="A239" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F239" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="16">
+      <c r="A240" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F240" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="16">
+      <c r="A241" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F241" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="16">
+      <c r="A242" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F242" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="16">
+      <c r="A243" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F243" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="16">
+      <c r="A244" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F244" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="16">
+      <c r="A245" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F245" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="16">
+      <c r="A246" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F246" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="16">
+      <c r="A247" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F247" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="16">
+      <c r="A248" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F248" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="16">
+      <c r="A249" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F249" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="16">
+      <c r="A250" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F250" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="16">
+      <c r="A251" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F251" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="16">
+      <c r="A252" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F252" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="16">
+      <c r="A253" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F253" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="16">
+      <c r="A254" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F254" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="16">
+      <c r="A255" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F255" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="16">
+      <c r="A256" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F256" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="16">
+      <c r="A257" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F257" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="16">
+      <c r="A258" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F258" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="16">
+      <c r="A259" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F259" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="16">
+      <c r="A260" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F260" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="16">
+      <c r="A261" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F261" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="16">
+      <c r="A262" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F262" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="16">
+      <c r="A263" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="16">
+      <c r="A264" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F264" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="16">
+      <c r="A265" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F265" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="16">
+      <c r="A266" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F266" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="16">
+      <c r="A267" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F267" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="16">
+      <c r="A268" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F268" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="16">
+      <c r="A269" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F269" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="16">
+      <c r="A270" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F270" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="16">
+      <c r="A271" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F271" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="16">
+      <c r="A272" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F272" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="16">
+      <c r="A273" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F273" s="1">
         <v>1</v>
       </c>
     </row>
